--- a/docs/source/recursos/agricultura/tabla_def_agr.xlsx
+++ b/docs/source/recursos/agricultura/tabla_def_agr.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EC258F-0724-4713-8E57-7395FF2F6BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88860BC4-8A62-4B78-91F7-3B2F992ABEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta sector" sheetId="2" r:id="rId1"/>
     <sheet name="Riego" sheetId="1" r:id="rId2"/>
+    <sheet name="Temporal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
-  <si>
-    <t>Agricultura de riego</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Infraestructura</t>
   </si>
@@ -154,6 +152,15 @@
   </si>
   <si>
     <t>Consolidar una red de innovación para la agricultura tecnificada.</t>
+  </si>
+  <si>
+    <t>Agricultura tecnificada de temporal</t>
+  </si>
+  <si>
+    <t>Agricultura tecnificada de riego</t>
+  </si>
+  <si>
+    <t>Utiliza maquinaria en planicies y agroquímicos, se desarrolla en mayores superficies y genera mayor producción para comercialización.</t>
   </si>
 </sst>
 </file>
@@ -527,70 +534,70 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -600,6 +607,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0191307-F977-47E2-8681-ABE9B769339C}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="142.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85717B56-931A-4F96-AF7A-AAE46A5A0161}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -614,139 +777,142 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/source/recursos/agricultura/tabla_def_agr.xlsx
+++ b/docs/source/recursos/agricultura/tabla_def_agr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88860BC4-8A62-4B78-91F7-3B2F992ABEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DB35E8-FC33-4C86-889A-04D2A84B95D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta sector" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Infraestructura</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Precipitación</t>
   </si>
   <si>
-    <t>lluvia anual</t>
-  </si>
-  <si>
     <t>Vías de comunicación</t>
   </si>
   <si>
@@ -91,15 +88,9 @@
     <t>Distancia a red de transmisión eléctrica.</t>
   </si>
   <si>
-    <t>Distancia a mercados</t>
-  </si>
-  <si>
     <t>Distancia a las principales localidades en las que se venden los productos agrícolas.</t>
   </si>
   <si>
-    <t>Disponibilidad de mano de obra</t>
-  </si>
-  <si>
     <t>Tenencia</t>
   </si>
   <si>
@@ -161,6 +152,24 @@
   </si>
   <si>
     <t>Utiliza maquinaria en planicies y agroquímicos, se desarrolla en mayores superficies y genera mayor producción para comercialización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lluvia acumulada anual. </t>
+  </si>
+  <si>
+    <t>Mercados</t>
+  </si>
+  <si>
+    <t>Mano de obra</t>
+  </si>
+  <si>
+    <t>Elevación del terreno.</t>
+  </si>
+  <si>
+    <t>Manoo de obra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distancia a centros de abastecimiento de gasolina y diesel al por menor. </t>
   </si>
 </sst>
 </file>
@@ -534,70 +543,70 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -607,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0191307-F977-47E2-8681-ABE9B769339C}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,15 +630,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,34 +648,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,84 +685,79 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -763,10 +767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85717B56-931A-4F96-AF7A-AAE46A5A0161}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,142 +781,129 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
